--- a/scene_classification/results/tables/performance/performance_eurosat.xlsx
+++ b/scene_classification/results/tables/performance/performance_eurosat.xlsx
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.9905555555555555</v>
+        <v>0.9911111111111112</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.9902213658271904</v>
+        <v>0.9908032995990874</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.9905553786568648</v>
+        <v>0.9911162109012718</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.9894883088925701</v>
+        <v>0.9901065303769977</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>27.827818</v>
+        <v>28.6</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>2032.373466491699</v>
+        <v>2469.582492828369</v>
       </c>
     </row>
     <row r="3">
@@ -528,22 +528,22 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9901851851851852</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.9896106784688776</v>
+        <v>0.9898819612599488</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.9900052055932775</v>
+        <v>0.9901915809835945</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.9888709511214921</v>
+        <v>0.9890765443407569</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>27.527044</v>
+        <v>28.3</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>1819.389416456223</v>
+        <v>1474.029290914536</v>
       </c>
     </row>
     <row r="4">
@@ -556,69 +556,69 @@
         <v>0.9898148148148148</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.9893665329922848</v>
+        <v>0.9895197400624811</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.9898221163934531</v>
+        <v>0.9898137747893395</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.9886643817317161</v>
+        <v>0.9886636029131105</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>10.711602</v>
+        <v>12.2</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>1458.782772541046</v>
+        <v>1558.9833984375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>vit_b_16</t>
+          <t>densenet121</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.9890740740740741</v>
+        <v>0.9896296296296296</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.9889196143013048</v>
+        <v>0.9893331952174449</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.989077259203292</v>
+        <v>0.9896173866341067</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.9878397410696905</v>
+        <v>0.9884574425448591</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>85.806346</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>3253.180640697479</v>
+        <v>1685.513358354568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>resnet101</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.9881481481481481</v>
+        <v>0.9890740740740741</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.9878372361608717</v>
+        <v>0.9887031337958833</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.9881415994128431</v>
+        <v>0.9890730406388604</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.9868066722048612</v>
+        <v>0.9878390912526194</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>23.5</v>
+        <v>44.5</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>2807.2</v>
+        <v>1928.099274635315</v>
       </c>
     </row>
     <row r="7">
@@ -628,72 +628,72 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.9853703703703703</v>
+        <v>0.9875925925925926</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.9852531981524704</v>
+        <v>0.9870486448163949</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.9853881794255791</v>
+        <v>0.9875855830309455</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.9837176815444157</v>
+        <v>0.9861907342804144</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>4.020358</v>
+        <v>5.3</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>344.4338641166687</v>
+        <v>1087.654934644699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>densenet121</t>
+          <t>vit_b_16</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.9846296296296296</v>
+        <v>0.9872222222222222</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.9840817349260412</v>
+        <v>0.9869984774436796</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.9846375167610724</v>
+        <v>0.9872227458213874</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.9828918238033437</v>
+        <v>0.9857794943820225</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>6.964106</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>515.8659307956696</v>
+        <v>3402.739871740341</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>resnet101</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.9812962962962963</v>
+        <v>0.987037037037037</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.9805931789193008</v>
+        <v>0.9865022853476677</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.9812953347771047</v>
+        <v>0.987038332097363</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.9791824115424252</v>
+        <v>0.9855716379626237</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>42.52065</v>
+        <v>25.6</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>611.1404116153717</v>
+        <v>1629.672913789749</v>
       </c>
     </row>
   </sheetData>
